--- a/APIAutoTest/data_config/case_data.xlsx
+++ b/APIAutoTest/data_config/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CodeAndProjects\Python\ryvueAutoTest\APIAutoTest\data_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD4915-B787-42E0-9A14-1D505829769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35FC2C7-66A0-4381-AD4C-3F10A80C883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1857,18 +1857,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证【用户管理】下载模板，请求成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prod-api/system/user/importTemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>application/x-www-form-urlencoded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>multipart/form-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2208,6 +2200,14 @@
   </si>
   <si>
     <t>menuManagement_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-www-form-urlencoded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】导出模板，下载成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2592,9 +2592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I308" sqref="I308"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12409,19 +12409,19 @@
         <v>42</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>561</v>
+        <v>672</v>
       </c>
       <c r="E265" t="s">
         <v>13</v>
       </c>
       <c r="F265" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G265" t="s">
         <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="J265" t="s">
         <v>560</v>
@@ -12429,7 +12429,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B266" t="s">
         <v>41</v>
@@ -12438,45 +12438,45 @@
         <v>42</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
       </c>
       <c r="F266" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G266" t="s">
         <v>20</v>
       </c>
       <c r="H266" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I266" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J266" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B268" t="s">
         <v>41</v>
       </c>
       <c r="C268" t="s">
+        <v>566</v>
+      </c>
+      <c r="D268" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="E268" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G268" t="s">
         <v>20</v>
@@ -12485,36 +12485,36 @@
         <v>14</v>
       </c>
       <c r="I268" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J268" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K268" t="s">
         <v>123</v>
       </c>
       <c r="L268" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B269" t="s">
         <v>41</v>
       </c>
       <c r="C269" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
       </c>
       <c r="F269" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G269" t="s">
         <v>20</v>
@@ -12523,36 +12523,36 @@
         <v>14</v>
       </c>
       <c r="I269" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J269" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K269" t="s">
         <v>123</v>
       </c>
       <c r="L269" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B270" t="s">
         <v>41</v>
       </c>
       <c r="C270" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
       </c>
       <c r="F270" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G270" t="s">
         <v>20</v>
@@ -12561,36 +12561,36 @@
         <v>14</v>
       </c>
       <c r="I270" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J270" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K270" t="s">
         <v>123</v>
       </c>
       <c r="L270" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B271" t="s">
         <v>41</v>
       </c>
       <c r="C271" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
       </c>
       <c r="F271" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G271" t="s">
         <v>20</v>
@@ -12599,36 +12599,36 @@
         <v>14</v>
       </c>
       <c r="I271" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J271" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K271" t="s">
         <v>123</v>
       </c>
       <c r="L271" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B272" t="s">
         <v>41</v>
       </c>
       <c r="C272" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E272" t="s">
         <v>17</v>
       </c>
       <c r="F272" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G272" t="s">
         <v>20</v>
@@ -12637,36 +12637,36 @@
         <v>14</v>
       </c>
       <c r="I272" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J272" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K272" t="s">
         <v>123</v>
       </c>
       <c r="L272" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B273" t="s">
         <v>41</v>
       </c>
       <c r="C273" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
       </c>
       <c r="F273" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G273" t="s">
         <v>20</v>
@@ -12675,36 +12675,36 @@
         <v>14</v>
       </c>
       <c r="I273" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J273" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K273" t="s">
         <v>123</v>
       </c>
       <c r="L273" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B274" t="s">
         <v>41</v>
       </c>
       <c r="C274" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
       </c>
       <c r="F274" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G274" t="s">
         <v>20</v>
@@ -12713,36 +12713,36 @@
         <v>14</v>
       </c>
       <c r="I274" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J274" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K274" t="s">
         <v>123</v>
       </c>
       <c r="L274" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B275" t="s">
         <v>41</v>
       </c>
       <c r="C275" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E275" t="s">
         <v>17</v>
       </c>
       <c r="F275" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G275" t="s">
         <v>20</v>
@@ -12751,36 +12751,36 @@
         <v>14</v>
       </c>
       <c r="I275" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J275" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K275" t="s">
         <v>123</v>
       </c>
       <c r="L275" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B276" t="s">
         <v>41</v>
       </c>
       <c r="C276" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E276" t="s">
         <v>17</v>
       </c>
       <c r="F276" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G276" t="s">
         <v>20</v>
@@ -12789,36 +12789,36 @@
         <v>14</v>
       </c>
       <c r="I276" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J276" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K276" t="s">
         <v>123</v>
       </c>
       <c r="L276" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B277" t="s">
         <v>41</v>
       </c>
       <c r="C277" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E277" t="s">
         <v>17</v>
       </c>
       <c r="F277" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G277" t="s">
         <v>20</v>
@@ -12827,36 +12827,36 @@
         <v>14</v>
       </c>
       <c r="I277" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J277" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K277" t="s">
         <v>123</v>
       </c>
       <c r="L277" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B278" t="s">
         <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E278" t="s">
         <v>17</v>
       </c>
       <c r="F278" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G278" t="s">
         <v>20</v>
@@ -12865,36 +12865,36 @@
         <v>14</v>
       </c>
       <c r="I278" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J278" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K278" t="s">
         <v>123</v>
       </c>
       <c r="L278" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B279" t="s">
         <v>41</v>
       </c>
       <c r="C279" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E279" t="s">
         <v>17</v>
       </c>
       <c r="F279" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G279" t="s">
         <v>20</v>
@@ -12903,36 +12903,36 @@
         <v>14</v>
       </c>
       <c r="I279" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J279" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K279" t="s">
         <v>123</v>
       </c>
       <c r="L279" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B280" t="s">
         <v>41</v>
       </c>
       <c r="C280" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E280" t="s">
         <v>17</v>
       </c>
       <c r="F280" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G280" t="s">
         <v>20</v>
@@ -12941,36 +12941,36 @@
         <v>14</v>
       </c>
       <c r="I280" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J280" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K280" t="s">
         <v>123</v>
       </c>
       <c r="L280" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B281" t="s">
         <v>41</v>
       </c>
       <c r="C281" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E281" t="s">
         <v>17</v>
       </c>
       <c r="F281" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G281" t="s">
         <v>20</v>
@@ -12979,36 +12979,36 @@
         <v>14</v>
       </c>
       <c r="I281" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J281" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K281" t="s">
         <v>123</v>
       </c>
       <c r="L281" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B282" t="s">
         <v>41</v>
       </c>
       <c r="C282" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E282" t="s">
         <v>17</v>
       </c>
       <c r="F282" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G282" t="s">
         <v>20</v>
@@ -13017,36 +13017,36 @@
         <v>14</v>
       </c>
       <c r="I282" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J282" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K282" t="s">
         <v>123</v>
       </c>
       <c r="L282" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B283" t="s">
         <v>41</v>
       </c>
       <c r="C283" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E283" t="s">
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G283" t="s">
         <v>20</v>
@@ -13055,36 +13055,36 @@
         <v>14</v>
       </c>
       <c r="I283" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J283" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K283" t="s">
         <v>123</v>
       </c>
       <c r="L283" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B284" t="s">
         <v>41</v>
       </c>
       <c r="C284" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E284" t="s">
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G284" t="s">
         <v>20</v>
@@ -13093,36 +13093,36 @@
         <v>14</v>
       </c>
       <c r="I284" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J284" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K284" t="s">
         <v>123</v>
       </c>
       <c r="L284" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B285" t="s">
         <v>41</v>
       </c>
       <c r="C285" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E285" t="s">
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G285" t="s">
         <v>20</v>
@@ -13131,36 +13131,36 @@
         <v>14</v>
       </c>
       <c r="I285" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J285" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K285" t="s">
         <v>123</v>
       </c>
       <c r="L285" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B286" t="s">
         <v>41</v>
       </c>
       <c r="C286" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E286" t="s">
         <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G286" t="s">
         <v>20</v>
@@ -13169,36 +13169,36 @@
         <v>14</v>
       </c>
       <c r="I286" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J286" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K286" t="s">
         <v>123</v>
       </c>
       <c r="L286" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B287" t="s">
         <v>41</v>
       </c>
       <c r="C287" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E287" t="s">
         <v>17</v>
       </c>
       <c r="F287" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G287" t="s">
         <v>20</v>
@@ -13207,36 +13207,36 @@
         <v>14</v>
       </c>
       <c r="I287" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J287" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K287" t="s">
         <v>123</v>
       </c>
       <c r="L287" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B288" t="s">
         <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E288" t="s">
         <v>17</v>
       </c>
       <c r="F288" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G288" t="s">
         <v>20</v>
@@ -13245,36 +13245,36 @@
         <v>14</v>
       </c>
       <c r="I288" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J288" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K288" t="s">
         <v>123</v>
       </c>
       <c r="L288" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B289" t="s">
         <v>41</v>
       </c>
       <c r="C289" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E289" t="s">
         <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G289" t="s">
         <v>20</v>
@@ -13283,36 +13283,36 @@
         <v>14</v>
       </c>
       <c r="I289" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J289" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K289" t="s">
         <v>123</v>
       </c>
       <c r="L289" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B290" t="s">
         <v>41</v>
       </c>
       <c r="C290" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E290" t="s">
         <v>17</v>
       </c>
       <c r="F290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G290" t="s">
         <v>20</v>
@@ -13321,36 +13321,36 @@
         <v>14</v>
       </c>
       <c r="I290" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J290" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K290" t="s">
         <v>123</v>
       </c>
       <c r="L290" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B291" t="s">
         <v>41</v>
       </c>
       <c r="C291" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E291" t="s">
         <v>17</v>
       </c>
       <c r="F291" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G291" t="s">
         <v>20</v>
@@ -13359,36 +13359,36 @@
         <v>14</v>
       </c>
       <c r="I291" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J291" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K291" t="s">
         <v>123</v>
       </c>
       <c r="L291" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B292" t="s">
         <v>41</v>
       </c>
       <c r="C292" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E292" t="s">
         <v>17</v>
       </c>
       <c r="F292" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G292" t="s">
         <v>20</v>
@@ -13397,36 +13397,36 @@
         <v>14</v>
       </c>
       <c r="I292" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J292" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K292" t="s">
         <v>123</v>
       </c>
       <c r="L292" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B293" t="s">
         <v>41</v>
       </c>
       <c r="C293" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E293" t="s">
         <v>17</v>
       </c>
       <c r="F293" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G293" t="s">
         <v>20</v>
@@ -13435,36 +13435,36 @@
         <v>14</v>
       </c>
       <c r="I293" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J293" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K293" t="s">
         <v>123</v>
       </c>
       <c r="L293" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>620</v>
+      </c>
+      <c r="B294" t="s">
+        <v>41</v>
+      </c>
+      <c r="C294" t="s">
+        <v>566</v>
+      </c>
+      <c r="D294" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="B294" t="s">
-        <v>41</v>
-      </c>
-      <c r="C294" t="s">
-        <v>568</v>
-      </c>
-      <c r="D294" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="E294" t="s">
         <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G294" t="s">
         <v>20</v>
@@ -13473,36 +13473,36 @@
         <v>14</v>
       </c>
       <c r="I294" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J294" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K294" t="s">
         <v>123</v>
       </c>
       <c r="L294" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B296" t="s">
         <v>41</v>
       </c>
       <c r="C296" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E296" t="s">
         <v>13</v>
       </c>
       <c r="F296" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G296" t="s">
         <v>20</v>
@@ -13511,36 +13511,36 @@
         <v>14</v>
       </c>
       <c r="I296" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J296" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K296" t="s">
         <v>123</v>
       </c>
       <c r="L296" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B297" t="s">
         <v>41</v>
       </c>
       <c r="C297" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E297" t="s">
         <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G297" t="s">
         <v>20</v>
@@ -13549,36 +13549,36 @@
         <v>14</v>
       </c>
       <c r="I297" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J297" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K297" t="s">
         <v>123</v>
       </c>
       <c r="L297" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B298" t="s">
         <v>41</v>
       </c>
       <c r="C298" t="s">
+        <v>624</v>
+      </c>
+      <c r="D298" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="E298" t="s">
         <v>17</v>
       </c>
       <c r="F298" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G298" t="s">
         <v>20</v>
@@ -13587,36 +13587,36 @@
         <v>14</v>
       </c>
       <c r="I298" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J298" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K298" t="s">
         <v>123</v>
       </c>
       <c r="L298" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B299" t="s">
         <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E299" t="s">
         <v>17</v>
       </c>
       <c r="F299" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G299" t="s">
         <v>20</v>
@@ -13625,36 +13625,36 @@
         <v>14</v>
       </c>
       <c r="I299" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J299" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K299" t="s">
         <v>123</v>
       </c>
       <c r="L299" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B300" t="s">
         <v>41</v>
       </c>
       <c r="C300" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E300" t="s">
         <v>17</v>
       </c>
       <c r="F300" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G300" t="s">
         <v>20</v>
@@ -13663,36 +13663,36 @@
         <v>14</v>
       </c>
       <c r="I300" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J300" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K300" t="s">
         <v>123</v>
       </c>
       <c r="L300" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B301" t="s">
         <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E301" t="s">
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G301" t="s">
         <v>20</v>
@@ -13701,36 +13701,36 @@
         <v>14</v>
       </c>
       <c r="I301" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J301" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K301" t="s">
         <v>123</v>
       </c>
       <c r="L301" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B302" t="s">
         <v>41</v>
       </c>
       <c r="C302" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E302" t="s">
         <v>17</v>
       </c>
       <c r="F302" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G302" t="s">
         <v>20</v>
@@ -13739,36 +13739,36 @@
         <v>14</v>
       </c>
       <c r="I302" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J302" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K302" t="s">
         <v>123</v>
       </c>
       <c r="L302" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B303" t="s">
         <v>41</v>
       </c>
       <c r="C303" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E303" t="s">
         <v>17</v>
       </c>
       <c r="F303" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G303" t="s">
         <v>20</v>
@@ -13777,36 +13777,36 @@
         <v>14</v>
       </c>
       <c r="I303" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J303" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K303" t="s">
         <v>123</v>
       </c>
       <c r="L303" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B304" t="s">
         <v>41</v>
       </c>
       <c r="C304" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E304" t="s">
         <v>17</v>
       </c>
       <c r="F304" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G304" t="s">
         <v>20</v>
@@ -13815,36 +13815,36 @@
         <v>14</v>
       </c>
       <c r="I304" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J304" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K304" t="s">
         <v>123</v>
       </c>
       <c r="L304" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B305" t="s">
         <v>41</v>
       </c>
       <c r="C305" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E305" t="s">
         <v>17</v>
       </c>
       <c r="F305" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G305" t="s">
         <v>20</v>
@@ -13853,36 +13853,36 @@
         <v>14</v>
       </c>
       <c r="I305" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J305" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K305" t="s">
         <v>123</v>
       </c>
       <c r="L305" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B306" t="s">
         <v>41</v>
       </c>
       <c r="C306" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E306" t="s">
         <v>17</v>
       </c>
       <c r="F306" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G306" t="s">
         <v>20</v>
@@ -13891,36 +13891,36 @@
         <v>14</v>
       </c>
       <c r="I306" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J306" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K306" t="s">
         <v>123</v>
       </c>
       <c r="L306" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B307" t="s">
         <v>41</v>
       </c>
       <c r="C307" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E307" t="s">
         <v>17</v>
       </c>
       <c r="F307" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G307" t="s">
         <v>20</v>
@@ -13929,36 +13929,36 @@
         <v>14</v>
       </c>
       <c r="I307" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J307" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K307" t="s">
         <v>123</v>
       </c>
       <c r="L307" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B308" t="s">
         <v>41</v>
       </c>
       <c r="C308" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E308" t="s">
         <v>17</v>
       </c>
       <c r="F308" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G308" t="s">
         <v>20</v>
@@ -13967,36 +13967,36 @@
         <v>14</v>
       </c>
       <c r="I308" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J308" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K308" t="s">
         <v>123</v>
       </c>
       <c r="L308" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B309" t="s">
         <v>41</v>
       </c>
       <c r="C309" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E309" t="s">
         <v>17</v>
       </c>
       <c r="F309" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G309" t="s">
         <v>20</v>
@@ -14005,36 +14005,36 @@
         <v>14</v>
       </c>
       <c r="I309" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J309" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K309" t="s">
         <v>123</v>
       </c>
       <c r="L309" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B310" t="s">
         <v>41</v>
       </c>
       <c r="C310" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E310" t="s">
         <v>17</v>
       </c>
       <c r="F310" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G310" t="s">
         <v>20</v>
@@ -14043,36 +14043,36 @@
         <v>14</v>
       </c>
       <c r="I310" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J310" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K310" t="s">
         <v>123</v>
       </c>
       <c r="L310" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B311" t="s">
         <v>41</v>
       </c>
       <c r="C311" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E311" t="s">
         <v>17</v>
       </c>
       <c r="F311" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G311" t="s">
         <v>20</v>
@@ -14081,36 +14081,36 @@
         <v>14</v>
       </c>
       <c r="I311" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J311" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K311" t="s">
         <v>123</v>
       </c>
       <c r="L311" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B312" t="s">
         <v>41</v>
       </c>
       <c r="C312" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
       </c>
       <c r="F312" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G312" t="s">
         <v>20</v>
@@ -14119,36 +14119,36 @@
         <v>14</v>
       </c>
       <c r="I312" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J312" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K312" t="s">
         <v>123</v>
       </c>
       <c r="L312" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B313" t="s">
         <v>41</v>
       </c>
       <c r="C313" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E313" t="s">
         <v>17</v>
       </c>
       <c r="F313" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G313" t="s">
         <v>20</v>
@@ -14157,36 +14157,36 @@
         <v>14</v>
       </c>
       <c r="I313" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J313" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K313" t="s">
         <v>123</v>
       </c>
       <c r="L313" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B314" t="s">
         <v>41</v>
       </c>
       <c r="C314" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E314" t="s">
         <v>17</v>
       </c>
       <c r="F314" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G314" t="s">
         <v>20</v>
@@ -14195,36 +14195,36 @@
         <v>14</v>
       </c>
       <c r="I314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K314" t="s">
         <v>123</v>
       </c>
       <c r="L314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B315" t="s">
         <v>41</v>
       </c>
       <c r="C315" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E315" t="s">
         <v>17</v>
       </c>
       <c r="F315" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G315" t="s">
         <v>20</v>
@@ -14233,36 +14233,36 @@
         <v>14</v>
       </c>
       <c r="I315" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J315" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K315" t="s">
         <v>123</v>
       </c>
       <c r="L315" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B316" t="s">
         <v>41</v>
       </c>
       <c r="C316" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
       </c>
       <c r="F316" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G316" t="s">
         <v>20</v>
@@ -14271,36 +14271,36 @@
         <v>14</v>
       </c>
       <c r="I316" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J316" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K316" t="s">
         <v>123</v>
       </c>
       <c r="L316" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B317" t="s">
         <v>41</v>
       </c>
       <c r="C317" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E317" t="s">
         <v>17</v>
       </c>
       <c r="F317" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G317" t="s">
         <v>20</v>
@@ -14309,16 +14309,16 @@
         <v>14</v>
       </c>
       <c r="I317" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J317" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K317" t="s">
         <v>123</v>
       </c>
       <c r="L317" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
